--- a/input/scenario_parametricMatching.xlsx
+++ b/input/scenario_parametricMatching.xlsx
@@ -1,52 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\Box\CeMPA shared area\ESPON - OVERLAP\_countries\UK\regression_estimates\union_parametrisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E0061-935B-48EC-9C67-9064E5CB6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A4DE81-D00E-4F64-91A3-F6A639272110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UK" sheetId="1" r:id="rId1"/>
-    <sheet name="IT" sheetId="2" r:id="rId2"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Estimates for the parametric couple matching process</t>
+  </si>
+  <si>
+    <t>Authors: Patryk Bronka, Daria Popova</t>
+  </si>
+  <si>
+    <t>Last edit: 4 July 2025 DP</t>
+  </si>
   <si>
     <t>Parameter</t>
   </si>
   <si>
+    <t>mean_dag_diff</t>
+  </si>
+  <si>
+    <t>mean_wage_diff</t>
+  </si>
+  <si>
+    <t>var_dag_diff</t>
+  </si>
+  <si>
+    <t>var_wage_diff</t>
+  </si>
+  <si>
+    <t>cov_dag_wage_diff</t>
+  </si>
+  <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>mean_dag_diff</t>
-  </si>
-  <si>
-    <t>mean_wage_diff</t>
-  </si>
-  <si>
-    <t>var_dag_diff</t>
-  </si>
-  <si>
-    <t>var_wage_diff</t>
-  </si>
-  <si>
-    <t>cov_dag_wage_diff</t>
   </si>
 </sst>
 </file>
@@ -56,10 +63,7 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,39 +116,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -177,9 +181,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -212,6 +233,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -273,13 +311,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -288,6 +319,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -352,11 +390,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -364,13 +422,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -385,40 +445,10 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1.997664543524416</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3.5955856795675567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>22.576468464147236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>128.43670192455068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.80599803083943655</v>
       </c>
     </row>
   </sheetData>
@@ -427,7 +457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F776AA79-ABB4-4A2A-AA34-CAA220F4565A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -436,50 +466,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>2.19</v>
+        <v>1.9909832261486442</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>6.51</v>
+        <v>3.5943392901166864</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>29.95</v>
+        <v>22.366846155599802</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>17.309999999999999</v>
+        <v>126.41297991430548</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>5.34</v>
+        <v>0.99009364374758324</v>
       </c>
     </row>
   </sheetData>

--- a/input/scenario_parametricMatching.xlsx
+++ b/input/scenario_parametricMatching.xlsx
@@ -1,43 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\Box\CeMPA shared area\ESPON - OVERLAP\_countries\UK\regression_estimates\union_parametrisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A4DE81-D00E-4F64-91A3-F6A639272110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E0061-935B-48EC-9C67-9064E5CB6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="UK" sheetId="1" r:id="rId1"/>
+    <sheet name="IT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Description:</t>
-  </si>
-  <si>
-    <t>Estimates for the parametric couple matching process</t>
-  </si>
-  <si>
-    <t>Authors: Patryk Bronka, Daria Popova</t>
-  </si>
-  <si>
-    <t>Last edit: 4 July 2025 DP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t>mean_dag_diff</t>
   </si>
   <si>
@@ -51,9 +47,6 @@
   </si>
   <si>
     <t>cov_dag_wage_diff</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -63,7 +56,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,39 +112,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -181,26 +177,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -233,23 +212,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,6 +273,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -319,13 +288,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,31 +352,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,15 +364,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,10 +385,40 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>1.997664543524416</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3.5955856795675567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>22.576468464147236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>128.43670192455068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.80599803083943655</v>
       </c>
     </row>
   </sheetData>
@@ -457,7 +427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F776AA79-ABB4-4A2A-AA34-CAA220F4565A}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -466,50 +436,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1.9909832261486442</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3.5943392901166864</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>22.366846155599802</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>126.41297991430548</v>
+        <v>17.309999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.99009364374758324</v>
+        <v>5.34</v>
       </c>
     </row>
   </sheetData>
